--- a/outputs/IMG_3073/xy.xlsx
+++ b/outputs/IMG_3073/xy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\matlabproj\image_graph_line_to_digital_convert\outputs\IMG_3073\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2560E2ED-F3F2-4699-AB8B-C981653A2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D3F4A-89C8-4E86-A89A-3A0D423762D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8760" yWindow="1665" windowWidth="19545" windowHeight="13875" xr2:uid="{F2F66821-29E2-4B44-9777-2DEDD4D1BBD5}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7DF27-B349-4FBF-85C9-D1E6D8390AB4}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B69"/>
+      <selection sqref="A1:B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,473 +404,2727 @@
         <v>380</v>
       </c>
       <c r="B1">
-        <v>47.602516095438823</v>
+        <v>47.676077600064055</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B2">
-        <v>47.634021329755988</v>
+        <v>47.676757355811375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B3">
-        <v>47.674738088995056</v>
+        <v>47.677437111558696</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B4">
-        <v>47.706051498576443</v>
+        <v>47.678116867306024</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B5">
-        <v>47.733219912149288</v>
+        <v>47.678796623053351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B6">
-        <v>47.756243329713584</v>
+        <v>47.679476378800679</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B7">
-        <v>47.716827789292431</v>
+        <v>47.679476378800679</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="B8">
-        <v>47.656004495272413</v>
+        <v>47.679476378800679</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="B9">
-        <v>47.548404433266612</v>
+        <v>47.681333272549466</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="B10">
-        <v>47.367496505432449</v>
+        <v>47.707147411539282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="B11">
-        <v>47.23920001101574</v>
+        <v>47.72432367871555</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="B12">
-        <v>47.142987006659141</v>
+        <v>47.741499945891817</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="B13">
-        <v>47.374661446508128</v>
+        <v>47.754625310931594</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="B14">
-        <v>47.928964976913555</v>
+        <v>47.777304099563842</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="B15">
-        <v>48.724560195875462</v>
+        <v>47.811656633916371</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="B16">
-        <v>49.797505333845479</v>
+        <v>47.846009168268907</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="B17">
-        <v>51.02063943977867</v>
+        <v>47.880361702621443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="B18">
-        <v>52.818096982215721</v>
+        <v>47.912857343225198</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="B19">
-        <v>54.786698886553054</v>
+        <v>47.930033610401466</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="B20">
-        <v>56.840608394858265</v>
+        <v>47.947209877577727</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="B21">
-        <v>58.857367884189983</v>
+        <v>47.947348039314988</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="B22">
-        <v>60.55978827498236</v>
+        <v>47.956996026940956</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>490</v>
+        <v>402</v>
       </c>
       <c r="B23">
-        <v>61.754129720831607</v>
+        <v>47.953191359722872</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>495</v>
+        <v>403</v>
       </c>
       <c r="B24">
-        <v>62.549122386213611</v>
+        <v>47.936015092546604</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="B25">
-        <v>62.539527366511749</v>
+        <v>47.918838825370344</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="B26">
-        <v>62.063864316724484</v>
+        <v>47.901662558194076</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>510</v>
+        <v>406</v>
       </c>
       <c r="B27">
-        <v>60.468011701814497</v>
+        <v>47.890399613372573</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>515</v>
+        <v>407</v>
       </c>
       <c r="B28">
-        <v>58.595226618396431</v>
+        <v>47.890399613372573</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>520</v>
+        <v>408</v>
       </c>
       <c r="B29">
-        <v>56.120844637228039</v>
+        <v>47.890399613372566</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>525</v>
+        <v>409</v>
       </c>
       <c r="B30">
-        <v>53.163156121463345</v>
+        <v>47.907437718811572</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="B31">
-        <v>49.956492763952767</v>
+        <v>47.917452909632566</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>535</v>
+        <v>411</v>
       </c>
       <c r="B32">
-        <v>46.524440642410021</v>
+        <v>47.950079957399765</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>540</v>
+        <v>412</v>
       </c>
       <c r="B33">
-        <v>42.791912080475718</v>
+        <v>47.984432491752301</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="B34">
-        <v>39.492107892505551</v>
+        <v>48.018785026104837</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="B35">
-        <v>36.212980872789899</v>
+        <v>48.053137560457373</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="B36">
-        <v>32.879856838333886</v>
+        <v>48.052479910588005</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="B37">
-        <v>29.538479077864604</v>
+        <v>48.03100957661767</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>565</v>
+        <v>417</v>
       </c>
       <c r="B38">
-        <v>26.511844680977475</v>
+        <v>48.009539242647335</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>570</v>
+        <v>418</v>
       </c>
       <c r="B39">
-        <v>23.792196728314956</v>
+        <v>47.982199798078149</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>575</v>
+        <v>419</v>
       </c>
       <c r="B40">
-        <v>21.063132099952906</v>
+        <v>47.950575497497397</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="B41">
-        <v>18.379867939171174</v>
+        <v>47.894389724344663</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>585</v>
+        <v>421</v>
       </c>
       <c r="B42">
-        <v>16.090073336876568</v>
+        <v>47.832327471967091</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>590</v>
+        <v>422</v>
       </c>
       <c r="B43">
-        <v>13.620664635142052</v>
+        <v>47.764416372712141</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>595</v>
+        <v>423</v>
+      </c>
+      <c r="B44">
+        <v>47.690656426579821</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>600</v>
+        <v>424</v>
+      </c>
+      <c r="B45">
+        <v>47.640144495437269</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>605</v>
+        <v>425</v>
+      </c>
+      <c r="B46">
+        <v>47.593333456696797</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>610</v>
+        <v>426</v>
+      </c>
+      <c r="B47">
+        <v>47.546098721962061</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>427</v>
+      </c>
+      <c r="B48">
+        <v>47.504733097826175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>428</v>
+      </c>
+      <c r="B49">
+        <v>47.456855450474045</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>429</v>
+      </c>
+      <c r="B50">
+        <v>47.408733410360014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>430</v>
+      </c>
+      <c r="B51">
+        <v>47.363443992885912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>431</v>
+      </c>
+      <c r="B52">
+        <v>47.303306794047515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>432</v>
+      </c>
+      <c r="B53">
+        <v>47.239656602769699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>433</v>
+      </c>
+      <c r="B54">
+        <v>47.181855258369254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>434</v>
+      </c>
+      <c r="B55">
+        <v>47.129902760846186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>435</v>
+      </c>
+      <c r="B56">
+        <v>47.057876283977365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>436</v>
+      </c>
+      <c r="B57">
+        <v>46.9891712152723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>437</v>
+      </c>
+      <c r="B58">
+        <v>46.932827016660831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>438</v>
+      </c>
+      <c r="B59">
+        <v>46.882576057688652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>439</v>
+      </c>
+      <c r="B60">
+        <v>46.835341322953916</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>440</v>
+      </c>
+      <c r="B61">
+        <v>46.808803216460852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>441</v>
+      </c>
+      <c r="B62">
+        <v>46.791138409381631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>442</v>
+      </c>
+      <c r="B63">
+        <v>46.757641372506221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>443</v>
+      </c>
+      <c r="B64">
+        <v>46.723288838153692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>444</v>
+      </c>
+      <c r="B65">
+        <v>46.709433979141181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>445</v>
+      </c>
+      <c r="B66">
+        <v>46.693484588191787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>446</v>
+      </c>
+      <c r="B67">
+        <v>46.692981679468168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>447</v>
+      </c>
+      <c r="B68">
+        <v>46.740216414202898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>448</v>
+      </c>
+      <c r="B69">
+        <v>46.787451148937627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>449</v>
+      </c>
+      <c r="B70">
+        <v>46.84797151632737</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>450</v>
+      </c>
+      <c r="B71">
+        <v>46.947223592493863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>451</v>
+      </c>
+      <c r="B72">
+        <v>47.077395160165423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>452</v>
+      </c>
+      <c r="B73">
+        <v>47.245305882693266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>453</v>
+      </c>
+      <c r="B74">
+        <v>47.45268665032178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>454</v>
+      </c>
+      <c r="B75">
+        <v>47.681039264372593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>455</v>
+      </c>
+      <c r="B76">
+        <v>47.979475985481983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>456</v>
+      </c>
+      <c r="B77">
+        <v>48.270234598312676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>457</v>
+      </c>
+      <c r="B78">
+        <v>48.605171808249892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>458</v>
+      </c>
+      <c r="B79">
+        <v>48.954986274055351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>459</v>
+      </c>
+      <c r="B80">
+        <v>49.318020054881927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>460</v>
+      </c>
+      <c r="B81">
+        <v>49.704088160544636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>461</v>
+      </c>
+      <c r="B82">
+        <v>50.134511710337549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>462</v>
+      </c>
+      <c r="B83">
+        <v>50.549770627848723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>463</v>
+      </c>
+      <c r="B84">
+        <v>51.062136246070196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>464</v>
+      </c>
+      <c r="B85">
+        <v>51.51463619932089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>465</v>
+      </c>
+      <c r="B86">
+        <v>51.975919554748387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>466</v>
+      </c>
+      <c r="B87">
+        <v>52.454169171511531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>467</v>
+      </c>
+      <c r="B88">
+        <v>52.957033683385056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>468</v>
+      </c>
+      <c r="B89">
+        <v>53.45705758994049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>469</v>
+      </c>
+      <c r="B90">
+        <v>53.954207732360892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>470</v>
+      </c>
+      <c r="B91">
+        <v>54.386231747718249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>471</v>
+      </c>
+      <c r="B92">
+        <v>54.878684391071801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>472</v>
+      </c>
+      <c r="B93">
+        <v>55.291843250176598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>473</v>
+      </c>
+      <c r="B94">
+        <v>55.751037600136712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>474</v>
+      </c>
+      <c r="B95">
+        <v>56.21753794276318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>475</v>
+      </c>
+      <c r="B96">
+        <v>56.701159287871</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>476</v>
+      </c>
+      <c r="B97">
+        <v>57.157126179648699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>477</v>
+      </c>
+      <c r="B98">
+        <v>57.616641064839257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>478</v>
+      </c>
+      <c r="B99">
+        <v>58.131829603676451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>479</v>
+      </c>
+      <c r="B100">
+        <v>58.697399648976223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>480</v>
+      </c>
+      <c r="B101">
+        <v>59.20649959742623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>481</v>
+      </c>
+      <c r="B102">
+        <v>59.715819025664587</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>482</v>
+      </c>
+      <c r="B103">
+        <v>60.222304480348242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>483</v>
+      </c>
+      <c r="B104">
+        <v>60.764579351451943</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>484</v>
+      </c>
+      <c r="B105">
+        <v>61.248233855376711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>485</v>
+      </c>
+      <c r="B106">
+        <v>61.737138505317397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>486</v>
+      </c>
+      <c r="B107">
+        <v>62.239544320223217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>487</v>
+      </c>
+      <c r="B108">
+        <v>62.6598820631961</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>488</v>
+      </c>
+      <c r="B109">
+        <v>63.090753257017745</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>489</v>
+      </c>
+      <c r="B110">
+        <v>63.493360506874026</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>490</v>
+      </c>
+      <c r="B111">
+        <v>63.860513014689921</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>491</v>
+      </c>
+      <c r="B112">
+        <v>64.165179641121483</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>492</v>
+      </c>
+      <c r="B113">
+        <v>64.384288481340079</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>493</v>
+      </c>
+      <c r="B114">
+        <v>64.590132388043926</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>494</v>
+      </c>
+      <c r="B115">
+        <v>64.77198337865822</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>495</v>
+      </c>
+      <c r="B116">
+        <v>64.89454389254756</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>496</v>
+      </c>
+      <c r="B117">
+        <v>65.014631562543087</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>497</v>
+      </c>
+      <c r="B118">
+        <v>65.061866297277817</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>498</v>
+      </c>
+      <c r="B119">
+        <v>65.109101032012546</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>499</v>
+      </c>
+      <c r="B120">
+        <v>65.151559389888604</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>500</v>
+      </c>
+      <c r="B121">
+        <v>65.167892217339372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>501</v>
+      </c>
+      <c r="B122">
+        <v>65.163236920403151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>502</v>
+      </c>
+      <c r="B123">
+        <v>65.155367730255094</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>503</v>
+      </c>
+      <c r="B124">
+        <v>65.052237981650322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>504</v>
+      </c>
+      <c r="B125">
+        <v>64.899619000202506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>505</v>
+      </c>
+      <c r="B126">
+        <v>64.740619458524833</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>506</v>
+      </c>
+      <c r="B127">
+        <v>64.502453492599855</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>507</v>
+      </c>
+      <c r="B128">
+        <v>64.238885109662093</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>508</v>
+      </c>
+      <c r="B129">
+        <v>63.9328292292819</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>509</v>
+      </c>
+      <c r="B130">
+        <v>63.609666557341868</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>510</v>
+      </c>
+      <c r="B131">
+        <v>63.165831055591312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>511</v>
+      </c>
+      <c r="B132">
+        <v>62.686009409461299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>512</v>
+      </c>
+      <c r="B133">
+        <v>62.191623305636199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>513</v>
+      </c>
+      <c r="B134">
+        <v>61.661181711005412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>514</v>
+      </c>
+      <c r="B135">
+        <v>61.053590602288175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>515</v>
+      </c>
+      <c r="B136">
+        <v>60.433834813144237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>516</v>
+      </c>
+      <c r="B137">
+        <v>59.761745384298052</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>517</v>
+      </c>
+      <c r="B138">
+        <v>59.020997309090511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>518</v>
+      </c>
+      <c r="B139">
+        <v>58.235601044768899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>519</v>
+      </c>
+      <c r="B140">
+        <v>57.528626645709565</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>520</v>
+      </c>
+      <c r="B141">
+        <v>56.740538028996873</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>521</v>
+      </c>
+      <c r="B142">
+        <v>55.978611718851894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>522</v>
+      </c>
+      <c r="B143">
+        <v>55.234339966697263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>523</v>
+      </c>
+      <c r="B144">
+        <v>54.456029899455409</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>524</v>
+      </c>
+      <c r="B145">
+        <v>53.684385675497275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>525</v>
+      </c>
+      <c r="B146">
+        <v>52.92932909708162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>526</v>
+      </c>
+      <c r="B147">
+        <v>52.159200415273389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>527</v>
+      </c>
+      <c r="B148">
+        <v>51.430765314090536</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>528</v>
+      </c>
+      <c r="B149">
+        <v>50.715345416988967</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>529</v>
+      </c>
+      <c r="B150">
+        <v>49.982665434590515</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>530</v>
+      </c>
+      <c r="B151">
+        <v>49.247674466866819</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>531</v>
+      </c>
+      <c r="B152">
+        <v>48.547557977836412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>532</v>
+      </c>
+      <c r="B153">
+        <v>47.873718184519987</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>533</v>
+      </c>
+      <c r="B154">
+        <v>47.215347900385552</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>534</v>
+      </c>
+      <c r="B155">
+        <v>46.575211886536543</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>535</v>
+      </c>
+      <c r="B156">
+        <v>45.9487641481197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>536</v>
+      </c>
+      <c r="B157">
+        <v>45.224929280140685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>537</v>
+      </c>
+      <c r="B158">
+        <v>44.497542734435818</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>538</v>
+      </c>
+      <c r="B159">
+        <v>43.778836430143926</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>539</v>
+      </c>
+      <c r="B160">
+        <v>43.099062261255646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>540</v>
+      </c>
+      <c r="B161">
+        <v>42.443495256839796</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>541</v>
+      </c>
+      <c r="B162">
+        <v>41.73716824420648</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>542</v>
+      </c>
+      <c r="B163">
+        <v>41.06475164836646</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>543</v>
+      </c>
+      <c r="B164">
+        <v>40.389755296568318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>544</v>
+      </c>
+      <c r="B165">
+        <v>39.698606179743514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>545</v>
+      </c>
+      <c r="B166">
+        <v>39.091946675883243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>546</v>
+      </c>
+      <c r="B167">
+        <v>38.448856685142019</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>547</v>
+      </c>
+      <c r="B168">
+        <v>37.861937335553748</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>548</v>
+      </c>
+      <c r="B169">
+        <v>37.260767984384401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>549</v>
+      </c>
+      <c r="B170">
+        <v>36.573127807254728</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>550</v>
+      </c>
+      <c r="B171">
+        <v>35.947801994777471</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>551</v>
+      </c>
+      <c r="B172">
+        <v>35.273005332743573</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>552</v>
+      </c>
+      <c r="B173">
+        <v>34.546166275949552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>553</v>
+      </c>
+      <c r="B174">
+        <v>33.881977487886893</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>554</v>
+      </c>
+      <c r="B175">
+        <v>33.234165260548714</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>555</v>
+      </c>
+      <c r="B176">
+        <v>32.59511117152681</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>556</v>
+      </c>
+      <c r="B177">
+        <v>31.964795220264914</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>557</v>
+      </c>
+      <c r="B178">
+        <v>31.332613532903043</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>558</v>
+      </c>
+      <c r="B179">
+        <v>30.698678358177069</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>559</v>
+      </c>
+      <c r="B180">
+        <v>30.027884965375968</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>560</v>
+      </c>
+      <c r="B181">
+        <v>29.384754447191817</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>561</v>
+      </c>
+      <c r="B182">
+        <v>28.801455487766731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>562</v>
+      </c>
+      <c r="B183">
+        <v>28.171714289331838</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>563</v>
+      </c>
+      <c r="B184">
+        <v>27.514392323826691</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>564</v>
+      </c>
+      <c r="B185">
+        <v>26.893602742773272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>565</v>
+      </c>
+      <c r="B186">
+        <v>26.222514710198755</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>566</v>
+      </c>
+      <c r="B187">
+        <v>25.566476359340584</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>567</v>
+      </c>
+      <c r="B188">
+        <v>25.001090284069637</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>568</v>
+      </c>
+      <c r="B189">
+        <v>24.288275196254549</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>569</v>
+      </c>
+      <c r="B190">
+        <v>23.628378422297295</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>570</v>
+      </c>
+      <c r="B191">
+        <v>23.006186381186343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>571</v>
+      </c>
+      <c r="B192">
+        <v>22.391928771272365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>572</v>
+      </c>
+      <c r="B193">
+        <v>21.828930744873436</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>573</v>
+      </c>
+      <c r="B194">
+        <v>21.238731435642595</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>574</v>
+      </c>
+      <c r="B195">
+        <v>20.715438279057061</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>575</v>
+      </c>
+      <c r="B196">
+        <v>20.146096290796148</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>576</v>
+      </c>
+      <c r="B197">
+        <v>19.504641187629332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>577</v>
+      </c>
+      <c r="B198">
+        <v>19.043280461628964</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>578</v>
+      </c>
+      <c r="B199">
+        <v>18.554385636522923</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>579</v>
+      </c>
+      <c r="B200">
+        <v>18.048847892407316</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>580</v>
+      </c>
+      <c r="B201">
+        <v>17.586571351462819</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>581</v>
+      </c>
+      <c r="B202">
+        <v>17.141386601660958</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>582</v>
+      </c>
+      <c r="B203">
+        <v>16.690978232896743</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>583</v>
+      </c>
+      <c r="B204">
+        <v>16.213270813031254</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>584</v>
+      </c>
+      <c r="B205">
+        <v>15.806428283440981</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>585</v>
+      </c>
+      <c r="B206">
+        <v>15.374355635152115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>586</v>
+      </c>
+      <c r="B207">
+        <v>14.994079269515394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>587</v>
+      </c>
+      <c r="B208">
+        <v>14.616431047147447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>588</v>
+      </c>
+      <c r="B209">
+        <v>14.196778112693996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>589</v>
+      </c>
+      <c r="B210">
+        <v>13.788139274035849</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>590</v>
+      </c>
+      <c r="B211">
+        <v>13.285584244453791</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>591</v>
+      </c>
+      <c r="B212">
+        <v>12.853989083128901</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>592</v>
+      </c>
+      <c r="B213">
+        <v>12.452739765775975</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>593</v>
+      </c>
+      <c r="B214">
+        <v>11.994705974408843</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>594</v>
+      </c>
+      <c r="B215">
+        <v>11.565310347941148</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>595</v>
+      </c>
+      <c r="B216">
+        <v>11.161668069298869</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>596</v>
+      </c>
+      <c r="B217">
+        <v>10.782931746493485</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>597</v>
+      </c>
+      <c r="B218">
+        <v>10.341758108247776</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>598</v>
+      </c>
+      <c r="B219">
+        <v>9.8915835880925638</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>599</v>
+      </c>
+      <c r="B220">
+        <v>9.5187701668557132</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>600</v>
+      </c>
+      <c r="B221">
+        <v>9.0746630786044751</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>601</v>
+      </c>
+      <c r="B222">
+        <v>8.6573582620879517</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>602</v>
+      </c>
+      <c r="B223">
+        <v>8.2860974103466098</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>603</v>
+      </c>
+      <c r="B224">
+        <v>7.869273396675748</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>604</v>
+      </c>
+      <c r="B225">
+        <v>7.4484548508572024</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>605</v>
+      </c>
+      <c r="B226">
+        <v>7.0231952341561268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>606</v>
+      </c>
+      <c r="B227">
+        <v>6.6053200859881862</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>607</v>
+      </c>
+      <c r="B228">
+        <v>6.2071821709583777</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>608</v>
+      </c>
+      <c r="B229">
+        <v>5.8028523995114929</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>609</v>
+      </c>
+      <c r="B230">
+        <v>5.3993261767285157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>610</v>
+      </c>
+      <c r="B231">
+        <v>4.9959071674536526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>611</v>
+      </c>
+      <c r="B232">
+        <v>4.5717941089562242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>612</v>
+      </c>
+      <c r="B233">
+        <v>4.2254451079525683</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>613</v>
+      </c>
+      <c r="B234">
+        <v>3.8604494304568906</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>614</v>
+      </c>
+      <c r="B235">
+        <v>3.4998948238437424</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
         <v>615</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="B236">
+        <v>3.1957146272085857</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>616</v>
+      </c>
+      <c r="B237">
+        <v>2.9022093590411568</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>617</v>
+      </c>
+      <c r="B238">
+        <v>2.619989141573194</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>618</v>
+      </c>
+      <c r="B239">
+        <v>2.4012404262028602</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>619</v>
+      </c>
+      <c r="B240">
+        <v>2.1865138753276603</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
         <v>620</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="B241">
+        <v>2.0131142633019228</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>621</v>
+      </c>
+      <c r="B242">
+        <v>1.8692002081641454</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>622</v>
+      </c>
+      <c r="B243">
+        <v>1.7446722711362088</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>623</v>
+      </c>
+      <c r="B244">
+        <v>1.620144334108272</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>624</v>
+      </c>
+      <c r="B245">
+        <v>1.5431747373063498</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
         <v>625</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="B246">
+        <v>1.4818014514585893</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>626</v>
+      </c>
+      <c r="B247">
+        <v>1.4141893956082949</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>627</v>
+      </c>
+      <c r="B248">
+        <v>1.3403385697554668</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>628</v>
+      </c>
+      <c r="B249">
+        <v>1.2602489739001046</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>629</v>
+      </c>
+      <c r="B250">
+        <v>1.1739206080422084</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
         <v>630</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="B251">
+        <v>1.0890782484250745</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>631</v>
+      </c>
+      <c r="B252">
+        <v>1.0074909793378051</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>632</v>
+      </c>
+      <c r="B253">
+        <v>0.92590371025053575</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>633</v>
+      </c>
+      <c r="B254">
+        <v>0.8540841689615255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>634</v>
+      </c>
+      <c r="B255">
+        <v>0.79552201392789967</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
         <v>635</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="B256">
+        <v>0.75021724514965826</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>636</v>
+      </c>
+      <c r="B257">
+        <v>0.71816986262680116</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>637</v>
+      </c>
+      <c r="B258">
+        <v>0.70480133292944414</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>638</v>
+      </c>
+      <c r="B259">
+        <v>0.70642550090746714</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>639</v>
+      </c>
+      <c r="B260">
+        <v>0.71358227889757853</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
         <v>640</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="B261">
+        <v>0.71324958543425088</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>641</v>
+      </c>
+      <c r="B262">
+        <v>0.69601473768138566</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>642</v>
+      </c>
+      <c r="B263">
+        <v>0.66881898131896289</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>643</v>
+      </c>
+      <c r="B264">
+        <v>0.64162322495654012</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>644</v>
+      </c>
+      <c r="B265">
+        <v>0.61442746859411734</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
         <v>645</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="B266">
+        <v>0.58723171223169457</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>646</v>
+      </c>
+      <c r="B267">
+        <v>0.55461448929915602</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>647</v>
+      </c>
+      <c r="B268">
+        <v>0.52026195494662197</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>648</v>
+      </c>
+      <c r="B269">
+        <v>0.48590942059408782</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>649</v>
+      </c>
+      <c r="B270">
+        <v>0.45904635769499269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
         <v>650</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="B271">
+        <v>0.44908544908543513</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>651</v>
+      </c>
+      <c r="B272">
+        <v>0.44908544908543513</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>652</v>
+      </c>
+      <c r="B273">
+        <v>0.44908544908543513</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>653</v>
+      </c>
+      <c r="B274">
+        <v>0.43190918190916833</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>654</v>
+      </c>
+      <c r="B275">
+        <v>0.41473291473290153</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
         <v>655</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="B276">
+        <v>0.39755664755663467</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>656</v>
+      </c>
+      <c r="B277">
+        <v>0.38038038038036787</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>657</v>
+      </c>
+      <c r="B278">
+        <v>0.34602784602783321</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>658</v>
+      </c>
+      <c r="B279">
+        <v>0.31167531167529855</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>659</v>
+      </c>
+      <c r="B280">
+        <v>0.27732277732276389</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
         <v>660</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="B281">
+        <v>0.24297024297022921</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>661</v>
+      </c>
+      <c r="B282">
+        <v>0.20861770861769455</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>662</v>
+      </c>
+      <c r="B283">
+        <v>0.19144144144142669</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>663</v>
+      </c>
+      <c r="B284">
+        <v>0.17426517426515886</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>664</v>
+      </c>
+      <c r="B285">
+        <v>0.15708890708889101</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
         <v>665</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="B286">
+        <v>0.13945578510141365</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>666</v>
+      </c>
+      <c r="B287">
+        <v>0.15250562172482546</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>667</v>
+      </c>
+      <c r="B288">
+        <v>0.16968188890109329</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>668</v>
+      </c>
+      <c r="B289">
+        <v>0.18685815607736111</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>669</v>
+      </c>
+      <c r="B290">
+        <v>0.204034423253629</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
         <v>670</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="B291">
+        <v>0.22121069042989686</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>671</v>
+      </c>
+      <c r="B292">
+        <v>0.23838695760616471</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>672</v>
+      </c>
+      <c r="B293">
+        <v>0.2555632247824326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>673</v>
+      </c>
+      <c r="B294">
+        <v>0.2727394919587004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>674</v>
+      </c>
+      <c r="B295">
+        <v>0.29037261394617775</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
         <v>675</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="B296">
+        <v>0.29449904449903386</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>676</v>
+      </c>
+      <c r="B297">
+        <v>0.29155896273012505</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>677</v>
+      </c>
+      <c r="B298">
+        <v>0.30786536360859834</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>678</v>
+      </c>
+      <c r="B299">
+        <v>0.32838293423878184</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>679</v>
+      </c>
+      <c r="B300">
+        <v>0.35311167462067555</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301">
         <v>680</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="B301">
+        <v>0.38030743098309844</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>681</v>
+      </c>
+      <c r="B302">
+        <v>0.40750318734552138</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>682</v>
+      </c>
+      <c r="B303">
+        <v>0.43469894370794432</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>683</v>
+      </c>
+      <c r="B304">
+        <v>0.46785039202455803</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>684</v>
+      </c>
+      <c r="B305">
+        <v>0.50220292637709207</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
         <v>685</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="B306">
+        <v>0.53949554249853504</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>686</v>
+      </c>
+      <c r="B307">
+        <v>0.55754167597259585</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>687</v>
+      </c>
+      <c r="B308">
+        <v>0.57137663969494645</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>688</v>
+      </c>
+      <c r="B309">
+        <v>0.58100043366558707</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>689</v>
+      </c>
+      <c r="B310">
+        <v>0.58815721165569823</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
         <v>690</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="B311">
+        <v>0.59531398964580939</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>691</v>
+      </c>
+      <c r="B312">
+        <v>0.60247076763592067</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>692</v>
+      </c>
+      <c r="B313">
+        <v>0.59222100888766294</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>693</v>
+      </c>
+      <c r="B314">
+        <v>0.58871722723072883</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>694</v>
+      </c>
+      <c r="B315">
+        <v>0.58296969896067774</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316">
         <v>695</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="B316">
+        <v>0.58110838403629972</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>696</v>
+      </c>
+      <c r="B317">
+        <v>0.57200960466724848</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>697</v>
+      </c>
+      <c r="B318">
+        <v>0.56055875988307047</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>698</v>
+      </c>
+      <c r="B319">
+        <v>0.55287917787916485</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>699</v>
+      </c>
+      <c r="B320">
+        <v>0.55081448887753925</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321">
         <v>700</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="B321">
+        <v>0.55436469287819379</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>701</v>
+      </c>
+      <c r="B322">
+        <v>0.57498063466530636</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>702</v>
+      </c>
+      <c r="B323">
+        <v>0.58944230002787124</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>703</v>
+      </c>
+      <c r="B324">
+        <v>0.6052093174840778</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>704</v>
+      </c>
+      <c r="B325">
+        <v>0.61709012159461141</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326">
         <v>705</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="B326">
+        <v>0.63620839014981811</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>706</v>
+      </c>
+      <c r="B327">
+        <v>0.65980752016786604</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>707</v>
+      </c>
+      <c r="B328">
+        <v>0.67750659135792712</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>708</v>
+      </c>
+      <c r="B329">
+        <v>0.68959076954570819</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>709</v>
+      </c>
+      <c r="B330">
+        <v>0.69606005473120913</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331">
         <v>710</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="B331">
+        <v>0.69874812949135612</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>711</v>
+      </c>
+      <c r="B332">
+        <v>0.69780973497188081</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>712</v>
+      </c>
+      <c r="B333">
+        <v>0.69780973497188081</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>713</v>
+      </c>
+      <c r="B334">
+        <v>0.69780973497188081</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>714</v>
+      </c>
+      <c r="B335">
+        <v>0.69780973497188081</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336">
         <v>715</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="B336">
+        <v>0.69568093892416627</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>716</v>
+      </c>
+      <c r="B337">
+        <v>0.69568093892416627</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>717</v>
+      </c>
+      <c r="B338">
+        <v>0.69568093892416627</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>718</v>
+      </c>
+      <c r="B339">
+        <v>0.69568093892416627</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>719</v>
+      </c>
+      <c r="B340">
+        <v>0.6938472563472402</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341">
         <v>720</v>
+      </c>
+      <c r="B341">
+        <v>0.6938472563472402</v>
       </c>
     </row>
   </sheetData>
